--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459BDBE-B34D-4AA7-BF6E-53C343D91D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85B445-6C14-447E-9C19-40057F193DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly schedule" sheetId="3" r:id="rId1"/>
+    <sheet name="subji" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>arbi</t>
   </si>
@@ -124,30 +125,6 @@
   <si>
     <t>Kundru
 kadhi plain/kofta</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kaccha kela
-Palak paneer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-roti</t>
-    </r>
   </si>
   <si>
     <t>Beetroot subji
@@ -184,6 +161,33 @@
 raita
 drumstick leave/tomoto chutney</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kaccha kela
+Palak kofta curry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+roti</t>
+    </r>
+  </si>
+  <si>
+    <t>raw papaya subji</t>
   </si>
 </sst>
 </file>
@@ -565,7 +569,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,22 +616,22 @@
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -678,4 +682,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A18641B-9075-4054-8CF2-CE8A78C1F5ED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TranscendCard/sourcetree/nandini_recipies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459BDBE-B34D-4AA7-BF6E-53C343D91D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E228C79-E47B-FB42-9ED9-4EC6983E8615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly schedule" sheetId="3" r:id="rId1"/>
+    <sheet name="Amit Things to consider next" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>arbi</t>
   </si>
@@ -71,24 +72,10 @@
     <t>Coconut rice</t>
   </si>
   <si>
-    <t>Rice special</t>
-  </si>
-  <si>
-    <t>South indian special</t>
-  </si>
-  <si>
     <t>curd rice</t>
   </si>
   <si>
-    <t>Sunday special</t>
-  </si>
-  <si>
     <t>chana dal/chilka moong dal/palak paneer</t>
-  </si>
-  <si>
-    <t>Fried idli
-Nariyal chutney
-Sambhar</t>
   </si>
   <si>
     <t>Plain idli
@@ -97,6 +84,109 @@
 cheela</t>
   </si>
   <si>
+    <t>Beetroot subji
+Sabut moong dal
+Roti</t>
+  </si>
+  <si>
+    <t>Aloo Shimla mirch ki subji
+yellow moong dal
+roti</t>
+  </si>
+  <si>
+    <t>1- Most important. Improve  the recipe which has failed last in last weekend.
+2- Try to adapt recipies according to season if required
+3- If that is done, Try something new.</t>
+  </si>
+  <si>
+    <t>Kaccha kela subji
+Chilka moong dal
+Roti</t>
+  </si>
+  <si>
+    <t>Kundru
+Baigan
+Tur Dal
+kadhi plain/kofta</t>
+  </si>
+  <si>
+    <t>Karela Subji</t>
+  </si>
+  <si>
+    <t>Rajasthani dal dhokli</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pmqwti9kWj4</t>
+  </si>
+  <si>
+    <t>Lauki kofta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=soUKwdZS2zA</t>
+  </si>
+  <si>
+    <t>Palak kofta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xIa0h2tKMfk</t>
+  </si>
+  <si>
+    <t>Besan stuffed karela</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wNxu8-EQ-oA</t>
+  </si>
+  <si>
+    <t>Dalia pulav</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eWZ0UVISyBY</t>
+  </si>
+  <si>
+    <t>Rava Upma</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SogcWMwjxS0</t>
+  </si>
+  <si>
+    <t>Bharma Karela</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hvvj-zn-Uwk</t>
+  </si>
+  <si>
+    <t>Sooji cutlets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jtXkMrFiRyw</t>
+  </si>
+  <si>
+    <t>Veg manchurian</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DqKxuiaShkA</t>
+  </si>
+  <si>
+    <t>Khatta meetha chiwda</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iuetmjAUi4I</t>
+  </si>
+  <si>
+    <t>Chana dal tadka</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IJuLjmnt-4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Fried idli</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -105,27 +195,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Baigan
-snake gourd
-tur dal
+      <t xml:space="preserve">
+Nariyal chutney
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>roti</t>
+      <t>Sambhar</t>
     </r>
   </si>
   <si>
-    <t>Kundru
-kadhi plain/kofta</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>biryani</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -134,41 +225,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kaccha kela
-Palak paneer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
-roti</t>
-    </r>
-  </si>
-  <si>
-    <t>Beetroot subji
-Sabut moong dal
-Roti</t>
-  </si>
-  <si>
-    <t>Aloo Shimla mirch ki subji
-yellow moong dal
-roti</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">biryani
 aloo turai tamatar curry
 </t>
     </r>
@@ -190,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +269,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,10 +300,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -248,8 +319,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,24 +638,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D67F1A-23E7-4361-A92D-D3AC17E09FFA}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -602,80 +678,185 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="96">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="64">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32">
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="G8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA7BB1-05D7-714E-BE1A-3523880FE1B4}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{9B25A99F-4A58-B945-AFE4-5B34C725E006}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1941683B-5AF6-E340-9A38-93F8EDF50B39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TranscendCard/sourcetree/nandini_recipies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E228C79-E47B-FB42-9ED9-4EC6983E8615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290E47D-B6E7-1844-A7B9-9DE7F5AAE6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -756,7 +756,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TranscendCard/sourcetree/nandini_recipies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6290E47D-B6E7-1844-A7B9-9DE7F5AAE6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D5712-CAA0-4D06-BB39-875E47D74396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekly schedule" sheetId="3" r:id="rId1"/>
-    <sheet name="Amit Things to consider next" sheetId="4" r:id="rId2"/>
+    <sheet name="Week" sheetId="3" r:id="rId1"/>
+    <sheet name="Steps" sheetId="5" r:id="rId2"/>
+    <sheet name="next" sheetId="4" r:id="rId3"/>
+    <sheet name="new recipe plan" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>arbi</t>
   </si>
@@ -73,20 +75,6 @@
   </si>
   <si>
     <t>curd rice</t>
-  </si>
-  <si>
-    <t>chana dal/chilka moong dal/palak paneer</t>
-  </si>
-  <si>
-    <t>Plain idli
-Rasam
-dosa
-cheela</t>
-  </si>
-  <si>
-    <t>Beetroot subji
-Sabut moong dal
-Roti</t>
   </si>
   <si>
     <t>Aloo Shimla mirch ki subji
@@ -177,36 +165,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-IJuLjmnt-4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Fried idli</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nariyal chutney
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Sambhar</t>
-    </r>
   </si>
   <si>
     <r>
@@ -242,12 +200,153 @@
 drumstick leave/tomoto chutney</t>
     </r>
   </si>
+  <si>
+    <t>Plain idli
+Rasam
+dosa
+cheela
+Nariyam chutney</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Fried idli in morning
+Upma in evening</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Traditional Sambhar</t>
+    </r>
+  </si>
+  <si>
+    <t>Fix weekly schedule.</t>
+  </si>
+  <si>
+    <t>Aloo turai tamatar</t>
+  </si>
+  <si>
+    <t>Default weekend schedule.</t>
+  </si>
+  <si>
+    <t>One seasonal healthy tasty recipe experiment every week.</t>
+  </si>
+  <si>
+    <t>get ingrediants by Thursday.</t>
+  </si>
+  <si>
+    <t>Order ingrediants by Tuesday 7 pm</t>
+  </si>
+  <si>
+    <t>Sat-Mon</t>
+  </si>
+  <si>
+    <t>Sat morning</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Work to be done</t>
+  </si>
+  <si>
+    <t>amit try to bring  recipes</t>
+  </si>
+  <si>
+    <t>Before Saturday</t>
+  </si>
+  <si>
+    <t>Amit should collect 8-12 recipies (Healthy, tasty, seasonal)</t>
+  </si>
+  <si>
+    <t>We will select 4-6 recipies for Nandini Gaurangi to study.</t>
+  </si>
+  <si>
+    <t>Tuesday Morning</t>
+  </si>
+  <si>
+    <t>Wed, thu, fri</t>
+  </si>
+  <si>
+    <t>Finalize Saturday, Sunday exact menu
+Place order for ingrediants</t>
+  </si>
+  <si>
+    <t>write down the recipies</t>
+  </si>
+  <si>
+    <t>Nandini Go through 4-6 recipes and finalize 2-3 recipes</t>
+  </si>
+  <si>
+    <t>Beetroot subji
+Sabut moong dal
+Roti
+Aloo Parantha, Roti</t>
+  </si>
+  <si>
+    <r>
+      <t>chana dal/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chilka moong dal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/palak paneer</t>
+    </r>
+  </si>
+  <si>
+    <t>Bharma Turai
+Chane ki dal
+Roti</t>
+  </si>
+  <si>
+    <t>Rasam
+Beetroot subji
+Aloo tamatar sookha subji (optional)
+Roti</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +381,36 @@
       <color rgb="FF00B050"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,15 +433,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,6 +449,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,21 +771,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D67F1A-23E7-4361-A92D-D3AC17E09FFA}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -678,178 +811,250 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96">
+    <row r="2" spans="1:7" ht="91.5">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="105">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="64">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32">
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32">
-      <c r="G5" s="1" t="s">
+    <row r="6" spans="1:7" ht="45">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="G6" s="1" t="s">
+    <row r="7" spans="1:7" ht="30">
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="G7" s="1" t="s">
+    <row r="8" spans="1:7">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="G8" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAE0568-F887-4FD0-BBE8-7CE47C7385BF}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA7BB1-05D7-714E-BE1A-3523880FE1B4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -859,4 +1064,75 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855476E6-1704-433A-B789-D03646EC2174}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D5712-CAA0-4D06-BB39-875E47D74396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F333A-BDD8-4195-9ACD-59B004958334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
@@ -331,15 +331,16 @@
     </r>
   </si>
   <si>
-    <t>Bharma Turai
-Chane ki dal
-Roti</t>
-  </si>
-  <si>
     <t>Rasam
 Beetroot subji
 Aloo tamatar sookha subji (optional)
 Roti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Chane ki dal
+Roti
+Bharma turai</t>
   </si>
 </sst>
 </file>
@@ -771,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D67F1A-23E7-4361-A92D-D3AC17E09FFA}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -813,10 +814,10 @@
     </row>
     <row r="2" spans="1:7" ht="91.5">
       <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
@@ -834,59 +835,50 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="105">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="105">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="F5" s="1" t="s">
+    <row r="4" spans="1:7" ht="30">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
       <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
       <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitkumar/Dropbox/recipies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F333A-BDD8-4195-9ACD-59B004958334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A6D63-59D3-FF4D-99F6-1FEE76CE49DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>arbi</t>
   </si>
@@ -75,11 +75,6 @@
   </si>
   <si>
     <t>curd rice</t>
-  </si>
-  <si>
-    <t>Aloo Shimla mirch ki subji
-yellow moong dal
-roti</t>
   </si>
   <si>
     <t>1- Most important. Improve  the recipe which has failed last in last weekend.
@@ -253,12 +248,6 @@
     <t>One seasonal healthy tasty recipe experiment every week.</t>
   </si>
   <si>
-    <t>get ingrediants by Thursday.</t>
-  </si>
-  <si>
-    <t>Order ingrediants by Tuesday 7 pm</t>
-  </si>
-  <si>
     <t>Sat-Mon</t>
   </si>
   <si>
@@ -297,12 +286,6 @@
   </si>
   <si>
     <t>Nandini Go through 4-6 recipes and finalize 2-3 recipes</t>
-  </si>
-  <si>
-    <t>Beetroot subji
-Sabut moong dal
-Roti
-Aloo Parantha, Roti</t>
   </si>
   <si>
     <r>
@@ -341,6 +324,33 @@
 Chane ki dal
 Roti
 Bharma turai</t>
+  </si>
+  <si>
+    <t>Karela subji
+Moong dal and veg bhaji</t>
+  </si>
+  <si>
+    <t>Aloo Shimla mirch ki subji
+yellow moong dal
+roti
+Murmura namkeen</t>
+  </si>
+  <si>
+    <t>Beetroot subji
+Sabut moong dal
+Roti
+Aloo Parantha, Roti
+Jau ka laddu</t>
+  </si>
+  <si>
+    <t>Bell pepper subji
+1 dal of Nandini's choice</t>
+  </si>
+  <si>
+    <t>Alaukik lauki</t>
+  </si>
+  <si>
+    <t>Chida dahi</t>
   </si>
 </sst>
 </file>
@@ -772,21 +782,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D67F1A-23E7-4361-A92D-D3AC17E09FFA}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -812,73 +822,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="91.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="100">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="65">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="80">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="105">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="32">
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
-      <c r="G5" s="1" t="s">
+    <row r="6" spans="1:7" ht="32">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="G6" s="1" t="s">
+    <row r="7" spans="1:7" ht="16">
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="G7" s="1" t="s">
+    <row r="8" spans="1:7" ht="16">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="G8" s="1" t="s">
+    <row r="9" spans="1:7" ht="16">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -896,10 +919,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -907,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -918,15 +941,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -937,116 +960,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA7BB1-05D7-714E-BE1A-3523880FE1B4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>47</v>
+      <c r="A13" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1066,62 +1086,62 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="32">
+      <c r="A2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:3" ht="32">
+      <c r="A3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32">
+      <c r="A5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Weekly menu.xlsx
+++ b/Weekly menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitkumar/Dropbox/recipies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171A6D63-59D3-FF4D-99F6-1FEE76CE49DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638075C3-BDAF-C245-B0C1-80731DB4D1DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{2F3F79CF-486F-4E95-9DB8-B59FBA73AE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>arbi</t>
   </si>
@@ -351,6 +351,16 @@
   </si>
   <si>
     <t>Chida dahi</t>
+  </si>
+  <si>
+    <t>Chana dal
+Turai/Bharma Turai
+Roti</t>
+  </si>
+  <si>
+    <t>Rasam
+Aloo tamatar subji
+Roti</t>
   </si>
 </sst>
 </file>
@@ -782,9 +792,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D67F1A-23E7-4361-A92D-D3AC17E09FFA}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -824,10 +834,10 @@
     </row>
     <row r="2" spans="1:7" ht="100">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>63</v>
@@ -845,12 +855,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="65">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
+    <row r="3" spans="1:7" ht="33">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -858,50 +868,63 @@
       <c r="F3" s="7"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="80">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="65">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="80">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32">
-      <c r="F5" s="1" t="s">
+    <row r="6" spans="1:7" ht="32">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32">
-      <c r="G6" s="1" t="s">
+    <row r="7" spans="1:7" ht="32">
+      <c r="G7" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="G7" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16">
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16">
       <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -962,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDA7BB1-05D7-714E-BE1A-3523880FE1B4}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
